--- a/xlsx/aerob-run-2mile.xlsx
+++ b/xlsx/aerob-run-2mile.xlsx
@@ -58,7 +58,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1742,7 +1762,7 @@
         <v>25.24</v>
       </c>
       <c r="S21" s="1">
-        <v>26.23</v>
+        <v>26.11</v>
       </c>
       <c r="T21" s="1">
         <v>28.36</v>
@@ -1804,7 +1824,7 @@
         <v>25.14</v>
       </c>
       <c r="S22" s="1">
-        <v>26.19</v>
+        <v>25.55</v>
       </c>
       <c r="T22" s="1">
         <v>28.3</v>
@@ -1866,7 +1886,7 @@
         <v>25.05</v>
       </c>
       <c r="S23" s="1">
-        <v>26.15</v>
+        <v>25.45</v>
       </c>
       <c r="T23" s="1">
         <v>28.24</v>
@@ -1928,7 +1948,7 @@
         <v>24.55</v>
       </c>
       <c r="S24" s="1">
-        <v>26.1</v>
+        <v>25.29</v>
       </c>
       <c r="T24" s="1">
         <v>28.05</v>
@@ -1990,7 +2010,7 @@
         <v>24.45</v>
       </c>
       <c r="S25" s="1">
-        <v>26.06</v>
+        <v>25.14</v>
       </c>
       <c r="T25" s="1">
         <v>27.47</v>
@@ -2052,7 +2072,7 @@
         <v>24.36</v>
       </c>
       <c r="S26" s="1">
-        <v>25.55</v>
+        <v>25.05</v>
       </c>
       <c r="T26" s="1">
         <v>27.35</v>
@@ -2114,7 +2134,7 @@
         <v>24.26</v>
       </c>
       <c r="S27" s="1">
-        <v>25.45</v>
+        <v>24.55</v>
       </c>
       <c r="T27" s="1">
         <v>27.23</v>
@@ -2176,7 +2196,7 @@
         <v>24.17</v>
       </c>
       <c r="S28" s="1">
-        <v>25.29</v>
+        <v>24.45</v>
       </c>
       <c r="T28" s="1">
         <v>27.12</v>
@@ -2238,7 +2258,7 @@
         <v>24.08</v>
       </c>
       <c r="S29" s="1">
-        <v>25.14</v>
+        <v>24.36</v>
       </c>
       <c r="T29" s="1">
         <v>27</v>
@@ -2300,7 +2320,7 @@
         <v>23.55</v>
       </c>
       <c r="S30" s="1">
-        <v>25.05</v>
+        <v>24.26</v>
       </c>
       <c r="T30" s="1">
         <v>26.49</v>
@@ -2362,7 +2382,7 @@
         <v>23.41</v>
       </c>
       <c r="S31" s="1">
-        <v>24.55</v>
+        <v>24.17</v>
       </c>
       <c r="T31" s="1">
         <v>26.38</v>
@@ -2424,7 +2444,7 @@
         <v>23.28</v>
       </c>
       <c r="S32" s="1">
-        <v>24.45</v>
+        <v>24.08</v>
       </c>
       <c r="T32" s="1">
         <v>26.27</v>
@@ -2486,7 +2506,7 @@
         <v>23.16</v>
       </c>
       <c r="S33" s="1">
-        <v>24.36</v>
+        <v>23.59</v>
       </c>
       <c r="T33" s="1">
         <v>26.22</v>
@@ -2548,7 +2568,7 @@
         <v>23.07</v>
       </c>
       <c r="S34" s="1">
-        <v>24.26</v>
+        <v>23.5</v>
       </c>
       <c r="T34" s="1">
         <v>26.16</v>
@@ -2610,7 +2630,7 @@
         <v>22.59</v>
       </c>
       <c r="S35" s="1">
-        <v>24.17</v>
+        <v>23.41</v>
       </c>
       <c r="T35" s="1">
         <v>26.06</v>
@@ -2672,7 +2692,7 @@
         <v>22.51</v>
       </c>
       <c r="S36" s="1">
-        <v>24.08</v>
+        <v>23.33</v>
       </c>
       <c r="T36" s="1">
         <v>25.55</v>
@@ -2734,7 +2754,7 @@
         <v>22.43</v>
       </c>
       <c r="S37" s="1">
-        <v>23.59</v>
+        <v>23.24</v>
       </c>
       <c r="T37" s="1">
         <v>25.45</v>
@@ -2796,7 +2816,7 @@
         <v>22.35</v>
       </c>
       <c r="S38" s="1">
-        <v>23.5</v>
+        <v>23.12</v>
       </c>
       <c r="T38" s="1">
         <v>25.34</v>
@@ -2858,7 +2878,7 @@
         <v>22.27</v>
       </c>
       <c r="S39" s="1">
-        <v>23.41</v>
+        <v>22.59</v>
       </c>
       <c r="T39" s="1">
         <v>25.24</v>
@@ -2920,7 +2940,7 @@
         <v>22.19</v>
       </c>
       <c r="S40" s="1">
-        <v>23.33</v>
+        <v>22.55</v>
       </c>
       <c r="T40" s="1">
         <v>25.14</v>
@@ -2982,7 +3002,7 @@
         <v>22.12</v>
       </c>
       <c r="S41" s="1">
-        <v>23.24</v>
+        <v>22.43</v>
       </c>
       <c r="T41" s="1">
         <v>25.05</v>
@@ -3044,7 +3064,7 @@
         <v>22.04</v>
       </c>
       <c r="S42" s="1">
-        <v>23.12</v>
+        <v>22.35</v>
       </c>
       <c r="T42" s="1">
         <v>25</v>
@@ -3106,7 +3126,7 @@
         <v>21.53</v>
       </c>
       <c r="S43" s="1">
-        <v>22.59</v>
+        <v>22.27</v>
       </c>
       <c r="T43" s="1">
         <v>24.45</v>
@@ -3168,7 +3188,7 @@
         <v>21.42</v>
       </c>
       <c r="S44" s="1">
-        <v>22.55</v>
+        <v>22.19</v>
       </c>
       <c r="T44" s="1">
         <v>24.36</v>
@@ -3230,7 +3250,7 @@
         <v>21.34</v>
       </c>
       <c r="S45" s="1">
-        <v>22.43</v>
+        <v>22.12</v>
       </c>
       <c r="T45" s="1">
         <v>24.26</v>
@@ -3292,7 +3312,7 @@
         <v>21.27</v>
       </c>
       <c r="S46" s="1">
-        <v>22.35</v>
+        <v>22.04</v>
       </c>
       <c r="T46" s="1">
         <v>24.17</v>
@@ -3354,7 +3374,7 @@
         <v>21.2</v>
       </c>
       <c r="S47" s="1">
-        <v>22.27</v>
+        <v>21.53</v>
       </c>
       <c r="T47" s="1">
         <v>24.08</v>
@@ -3416,7 +3436,7 @@
         <v>21.1</v>
       </c>
       <c r="S48" s="1">
-        <v>22.19</v>
+        <v>21.42</v>
       </c>
       <c r="T48" s="1">
         <v>23.59</v>
@@ -3478,7 +3498,7 @@
         <v>20.59</v>
       </c>
       <c r="S49" s="1">
-        <v>22.12</v>
+        <v>21.34</v>
       </c>
       <c r="T49" s="1">
         <v>23.5</v>
@@ -3540,7 +3560,7 @@
         <v>20.52</v>
       </c>
       <c r="S50" s="1">
-        <v>22.04</v>
+        <v>21.27</v>
       </c>
       <c r="T50" s="1">
         <v>23.41</v>
@@ -3602,7 +3622,7 @@
         <v>20.46</v>
       </c>
       <c r="S51" s="1">
-        <v>21.53</v>
+        <v>21.2</v>
       </c>
       <c r="T51" s="1">
         <v>23.33</v>
@@ -3664,7 +3684,7 @@
         <v>20.39</v>
       </c>
       <c r="S52" s="1">
-        <v>21.42</v>
+        <v>21.1</v>
       </c>
       <c r="T52" s="1">
         <v>23.24</v>
@@ -3726,7 +3746,7 @@
         <v>20.32</v>
       </c>
       <c r="S53" s="1">
-        <v>21.34</v>
+        <v>20.59</v>
       </c>
       <c r="T53" s="1">
         <v>23.16</v>
@@ -3788,7 +3808,7 @@
         <v>20.260000000000002</v>
       </c>
       <c r="S54" s="1">
-        <v>21.27</v>
+        <v>20.52</v>
       </c>
       <c r="T54" s="1">
         <v>23.07</v>
@@ -3850,7 +3870,7 @@
         <v>20.190000000000001</v>
       </c>
       <c r="S55" s="1">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="T55" s="1">
         <v>22.59</v>
@@ -3912,7 +3932,7 @@
         <v>20.13</v>
       </c>
       <c r="S56" s="1">
-        <v>21.1</v>
+        <v>20.48</v>
       </c>
       <c r="T56" s="1">
         <v>22.51</v>
@@ -3974,7 +3994,7 @@
         <v>20.07</v>
       </c>
       <c r="S57" s="1">
-        <v>20.59</v>
+        <v>20.46</v>
       </c>
       <c r="T57" s="1">
         <v>22.43</v>
@@ -4036,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="S58" s="1">
-        <v>20.52</v>
+        <v>20.43</v>
       </c>
       <c r="T58" s="1">
         <v>22.35</v>
@@ -4098,7 +4118,7 @@
         <v>19.54</v>
       </c>
       <c r="S59" s="1">
-        <v>20.46</v>
+        <v>20.38</v>
       </c>
       <c r="T59" s="1">
         <v>22.27</v>
@@ -4419,7 +4439,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>15.31</v>
+        <v>15.27</v>
       </c>
       <c r="C65" s="1">
         <v>15.12</v>
@@ -6205,24 +6225,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B59:T77 B2:R58 T2:T58 S25:S57 S2:S19 S21:S23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T21 B22:R78 T22:T78 S58:S78 S23:S56">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S58">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
-      <formula>S24</formula>
+  <conditionalFormatting sqref="S57">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
+      <formula>S54</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7903,7 +7918,7 @@
         <v>17.53</v>
       </c>
       <c r="Q27" s="1">
-        <v>18.309999999999999</v>
+        <v>18.23</v>
       </c>
       <c r="R27" s="1">
         <v>19.13</v>
@@ -7965,7 +7980,7 @@
         <v>17.45</v>
       </c>
       <c r="Q28" s="1">
-        <v>18.23</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="R28" s="1">
         <v>19.04</v>
@@ -8027,7 +8042,7 @@
         <v>17.38</v>
       </c>
       <c r="Q29" s="1">
-        <v>18.149999999999999</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="R29" s="1">
         <v>18.559999999999999</v>
@@ -8089,7 +8104,7 @@
         <v>17.309999999999999</v>
       </c>
       <c r="Q30" s="1">
-        <v>18.079999999999998</v>
+        <v>18</v>
       </c>
       <c r="R30" s="1">
         <v>18.47</v>
@@ -8151,7 +8166,7 @@
         <v>17.239999999999998</v>
       </c>
       <c r="Q31" s="1">
-        <v>18</v>
+        <v>17.53</v>
       </c>
       <c r="R31" s="1">
         <v>18.39</v>
@@ -8213,7 +8228,7 @@
         <v>17.190000000000001</v>
       </c>
       <c r="Q32" s="1">
-        <v>17.53</v>
+        <v>17.45</v>
       </c>
       <c r="R32" s="1">
         <v>18.309999999999999</v>
@@ -8275,10 +8290,10 @@
         <v>17.14</v>
       </c>
       <c r="Q33" s="1">
-        <v>17.45</v>
+        <v>17.38</v>
       </c>
       <c r="R33" s="1">
-        <v>18.309999999999999</v>
+        <v>18.23</v>
       </c>
       <c r="S33" s="1">
         <v>19.57</v>
@@ -8337,10 +8352,10 @@
         <v>17.100000000000001</v>
       </c>
       <c r="Q34" s="1">
-        <v>17.38</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="R34" s="1">
-        <v>18.23</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="S34" s="1">
         <v>19.48</v>
@@ -8399,10 +8414,10 @@
         <v>17.05</v>
       </c>
       <c r="Q35" s="1">
-        <v>17.309999999999999</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="R35" s="1">
-        <v>18.149999999999999</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="S35" s="1">
         <v>19.420000000000002</v>
@@ -8461,10 +8476,10 @@
         <v>16.579999999999998</v>
       </c>
       <c r="Q36" s="1">
-        <v>17.239999999999998</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="R36" s="1">
-        <v>18.079999999999998</v>
+        <v>18</v>
       </c>
       <c r="S36" s="1">
         <v>19.36</v>
@@ -8523,10 +8538,10 @@
         <v>16.52</v>
       </c>
       <c r="Q37" s="1">
-        <v>17.190000000000001</v>
+        <v>17.14</v>
       </c>
       <c r="R37" s="1">
-        <v>18</v>
+        <v>17.53</v>
       </c>
       <c r="S37" s="1">
         <v>19.3</v>
@@ -8585,10 +8600,10 @@
         <v>16.47</v>
       </c>
       <c r="Q38" s="1">
-        <v>17.14</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="R38" s="1">
-        <v>17.53</v>
+        <v>17.45</v>
       </c>
       <c r="S38" s="1">
         <v>19.21</v>
@@ -8647,10 +8662,10 @@
         <v>16.43</v>
       </c>
       <c r="Q39" s="1">
-        <v>17.100000000000001</v>
+        <v>17.05</v>
       </c>
       <c r="R39" s="1">
-        <v>17.45</v>
+        <v>17.38</v>
       </c>
       <c r="S39" s="1">
         <v>19.07</v>
@@ -8709,10 +8724,10 @@
         <v>16.34</v>
       </c>
       <c r="Q40" s="1">
-        <v>17.05</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="R40" s="1">
-        <v>17.38</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="S40" s="1">
         <v>19.010000000000002</v>
@@ -8771,10 +8786,10 @@
         <v>16.3</v>
       </c>
       <c r="Q41" s="1">
-        <v>16.579999999999998</v>
+        <v>16.55</v>
       </c>
       <c r="R41" s="1">
-        <v>17.309999999999999</v>
+        <v>17.28</v>
       </c>
       <c r="S41" s="1">
         <v>18.53</v>
@@ -8833,10 +8848,10 @@
         <v>16.239999999999998</v>
       </c>
       <c r="Q42" s="1">
-        <v>16.55</v>
+        <v>16.52</v>
       </c>
       <c r="R42" s="1">
-        <v>17.28</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="S42" s="1">
         <v>18.45</v>
@@ -8895,10 +8910,10 @@
         <v>16.18</v>
       </c>
       <c r="Q43" s="1">
-        <v>16.52</v>
+        <v>16.47</v>
       </c>
       <c r="R43" s="1">
-        <v>17.239999999999998</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="S43" s="1">
         <v>18.37</v>
@@ -8957,10 +8972,10 @@
         <v>16.11</v>
       </c>
       <c r="Q44" s="1">
-        <v>16.47</v>
+        <v>16.41</v>
       </c>
       <c r="R44" s="1">
-        <v>17.170000000000002</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S44" s="1">
         <v>18.29</v>
@@ -9019,10 +9034,10 @@
         <v>16.05</v>
       </c>
       <c r="Q45" s="1">
-        <v>16.41</v>
+        <v>16.34</v>
       </c>
       <c r="R45" s="1">
-        <v>17.100000000000001</v>
+        <v>17.03</v>
       </c>
       <c r="S45" s="1">
         <v>18.23</v>
@@ -9081,10 +9096,10 @@
         <v>15.59</v>
       </c>
       <c r="Q46" s="1">
-        <v>16.34</v>
+        <v>16.28</v>
       </c>
       <c r="R46" s="1">
-        <v>17.03</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="S46" s="1">
         <v>18.149999999999999</v>
@@ -9143,10 +9158,10 @@
         <v>15.53</v>
       </c>
       <c r="Q47" s="1">
-        <v>16.28</v>
+        <v>16.22</v>
       </c>
       <c r="R47" s="1">
-        <v>16.559999999999999</v>
+        <v>16.52</v>
       </c>
       <c r="S47" s="1">
         <v>18.079999999999998</v>
@@ -9205,10 +9220,10 @@
         <v>15.48</v>
       </c>
       <c r="Q48" s="1">
-        <v>16.22</v>
+        <v>16.18</v>
       </c>
       <c r="R48" s="1">
-        <v>16.52</v>
+        <v>16.47</v>
       </c>
       <c r="S48" s="1">
         <v>18</v>
@@ -9267,10 +9282,10 @@
         <v>15.42</v>
       </c>
       <c r="Q49" s="1">
-        <v>16.18</v>
+        <v>16.14</v>
       </c>
       <c r="R49" s="1">
-        <v>16.47</v>
+        <v>16.41</v>
       </c>
       <c r="S49" s="1">
         <v>17.53</v>
@@ -9329,10 +9344,10 @@
         <v>15.38</v>
       </c>
       <c r="Q50" s="1">
-        <v>16.14</v>
+        <v>16.09</v>
       </c>
       <c r="R50" s="1">
-        <v>16.41</v>
+        <v>16.34</v>
       </c>
       <c r="S50" s="1">
         <v>17.45</v>
@@ -9391,10 +9406,10 @@
         <v>15.32</v>
       </c>
       <c r="Q51" s="1">
-        <v>16.09</v>
+        <v>16.05</v>
       </c>
       <c r="R51" s="1">
-        <v>16.34</v>
+        <v>16.28</v>
       </c>
       <c r="S51" s="1">
         <v>17.38</v>
@@ -9453,10 +9468,10 @@
         <v>15.27</v>
       </c>
       <c r="Q52" s="1">
-        <v>16.05</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="R52" s="1">
-        <v>16.28</v>
+        <v>16.22</v>
       </c>
       <c r="S52" s="1">
         <v>17.329999999999998</v>
@@ -9515,10 +9530,10 @@
         <v>15.23</v>
       </c>
       <c r="Q53" s="1">
-        <v>16.010000000000002</v>
+        <v>15.57</v>
       </c>
       <c r="R53" s="1">
-        <v>16.22</v>
+        <v>16.18</v>
       </c>
       <c r="S53" s="1">
         <v>17.260000000000002</v>
@@ -9577,10 +9592,10 @@
         <v>15.19</v>
       </c>
       <c r="Q54" s="1">
-        <v>15.57</v>
+        <v>15.53</v>
       </c>
       <c r="R54" s="1">
-        <v>16.18</v>
+        <v>16.14</v>
       </c>
       <c r="S54" s="1">
         <v>17.190000000000001</v>
@@ -9639,10 +9654,10 @@
         <v>15.16</v>
       </c>
       <c r="Q55" s="1">
-        <v>15.53</v>
+        <v>15.52</v>
       </c>
       <c r="R55" s="1">
-        <v>16.14</v>
+        <v>16.09</v>
       </c>
       <c r="S55" s="1">
         <v>17.14</v>
@@ -9701,10 +9716,10 @@
         <v>15.12</v>
       </c>
       <c r="Q56" s="1">
-        <v>15.52</v>
+        <v>15.46</v>
       </c>
       <c r="R56" s="1">
-        <v>16.09</v>
+        <v>16.05</v>
       </c>
       <c r="S56" s="1">
         <v>17.100000000000001</v>
@@ -9763,10 +9778,10 @@
         <v>15.03</v>
       </c>
       <c r="Q57" s="1">
-        <v>15.46</v>
+        <v>15.4</v>
       </c>
       <c r="R57" s="1">
-        <v>16.05</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="S57" s="1">
         <v>17.03</v>
@@ -9825,10 +9840,10 @@
         <v>14.58</v>
       </c>
       <c r="Q58" s="1">
-        <v>15.4</v>
+        <v>15.34</v>
       </c>
       <c r="R58" s="1">
-        <v>16.010000000000002</v>
+        <v>15.57</v>
       </c>
       <c r="S58" s="1">
         <v>16.559999999999999</v>
@@ -9887,10 +9902,10 @@
         <v>14.55</v>
       </c>
       <c r="Q59" s="1">
-        <v>15.34</v>
+        <v>15.29</v>
       </c>
       <c r="R59" s="1">
-        <v>15.57</v>
+        <v>15.53</v>
       </c>
       <c r="S59" s="1">
         <v>16.52</v>
@@ -9949,10 +9964,10 @@
         <v>14.51</v>
       </c>
       <c r="Q60" s="1">
-        <v>15.29</v>
+        <v>15.23</v>
       </c>
       <c r="R60" s="1">
-        <v>15.53</v>
+        <v>15.52</v>
       </c>
       <c r="S60" s="1">
         <v>16.47</v>
@@ -10011,10 +10026,10 @@
         <v>14.46</v>
       </c>
       <c r="Q61" s="1">
-        <v>15.23</v>
+        <v>15.18</v>
       </c>
       <c r="R61" s="1">
-        <v>15.52</v>
+        <v>15.46</v>
       </c>
       <c r="S61" s="1">
         <v>16.41</v>
@@ -10073,10 +10088,10 @@
         <v>14.41</v>
       </c>
       <c r="Q62" s="1">
-        <v>15.18</v>
+        <v>15.12</v>
       </c>
       <c r="R62" s="1">
-        <v>15.46</v>
+        <v>15.4</v>
       </c>
       <c r="S62" s="1">
         <v>16.34</v>
@@ -10135,10 +10150,10 @@
         <v>14.36</v>
       </c>
       <c r="Q63" s="1">
-        <v>15.12</v>
+        <v>15.06</v>
       </c>
       <c r="R63" s="1">
-        <v>15.4</v>
+        <v>15.34</v>
       </c>
       <c r="S63" s="1">
         <v>16.28</v>
@@ -10197,10 +10212,10 @@
         <v>14.31</v>
       </c>
       <c r="Q64" s="1">
-        <v>15.09</v>
+        <v>15.03</v>
       </c>
       <c r="R64" s="1">
-        <v>15.34</v>
+        <v>15.29</v>
       </c>
       <c r="S64" s="1">
         <v>16.22</v>
@@ -10259,10 +10274,10 @@
         <v>14.28</v>
       </c>
       <c r="Q65" s="1">
-        <v>15.05</v>
+        <v>14.59</v>
       </c>
       <c r="R65" s="1">
-        <v>15.29</v>
+        <v>15.23</v>
       </c>
       <c r="S65" s="1">
         <v>16.16</v>
@@ -10321,10 +10336,10 @@
         <v>14.25</v>
       </c>
       <c r="Q66" s="1">
-        <v>15.01</v>
+        <v>14.57</v>
       </c>
       <c r="R66" s="1">
-        <v>15.23</v>
+        <v>15.18</v>
       </c>
       <c r="S66" s="1">
         <v>16.09</v>
@@ -10386,7 +10401,7 @@
         <v>14.55</v>
       </c>
       <c r="R67" s="1">
-        <v>15.18</v>
+        <v>15.12</v>
       </c>
       <c r="S67" s="1">
         <v>16.05</v>
@@ -10448,7 +10463,7 @@
         <v>14.51</v>
       </c>
       <c r="R68" s="1">
-        <v>15.12</v>
+        <v>15.09</v>
       </c>
       <c r="S68" s="1">
         <v>15.59</v>
@@ -10510,7 +10525,7 @@
         <v>14.48</v>
       </c>
       <c r="R69" s="1">
-        <v>15.08</v>
+        <v>15.07</v>
       </c>
       <c r="S69" s="1">
         <v>15.53</v>
@@ -10572,7 +10587,7 @@
         <v>14.44</v>
       </c>
       <c r="R70" s="1">
-        <v>15.02</v>
+        <v>15.03</v>
       </c>
       <c r="S70" s="1">
         <v>15.48</v>
@@ -12000,9 +12015,19 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T25 B26:P78 R26:T31 Q65:Q78 Q27:Q63 S32:T78 R70:R78 R33:R68">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26 R32">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q64 R69">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThanOrEqual">
+      <formula>Q62</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
